--- a/Data/COVID-19_Trial-1_Stage-1_Encoded_KWALDSTEIN_202010281100.xlsx
+++ b/Data/COVID-19_Trial-1_Stage-1_Encoded_KWALDSTEIN_202010281100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiryi.IOWA\Dropbox\CS_Virus_Testing\Codes\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4880E3B7-5968-4C8B-B96F-73204230C2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30051FA8-A1A3-47AE-BF68-0783E3A4EE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB61FEA8-4E5B-8D40-A9BC-7922E6904BC8}"/>
+    <workbookView xWindow="1890" yWindow="2625" windowWidth="21600" windowHeight="9420" xr2:uid="{CB61FEA8-4E5B-8D40-A9BC-7922E6904BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t xml:space="preserve">Exp 1 </t>
   </si>
@@ -87,6 +87,54 @@
   <si>
     <t>Status</t>
   </si>
+  <si>
+    <t>Pool 1</t>
+  </si>
+  <si>
+    <t>Pool 2</t>
+  </si>
+  <si>
+    <t>Pool 3</t>
+  </si>
+  <si>
+    <t>Pool 4</t>
+  </si>
+  <si>
+    <t>Pool 5</t>
+  </si>
+  <si>
+    <t>Pool 6</t>
+  </si>
+  <si>
+    <t>Pool 7</t>
+  </si>
+  <si>
+    <t>Pool 8</t>
+  </si>
+  <si>
+    <t>Pool 9</t>
+  </si>
+  <si>
+    <t>Pool 10</t>
+  </si>
+  <si>
+    <t>Pool 11</t>
+  </si>
+  <si>
+    <t>Pool 12</t>
+  </si>
+  <si>
+    <t>Pool 13</t>
+  </si>
+  <si>
+    <t>Pool 14</t>
+  </si>
+  <si>
+    <t>Pool 15</t>
+  </si>
+  <si>
+    <t>Pool 16</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +168,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -471,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA11BDE-7002-6745-B854-DC0E92656C68}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33:N33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1570,9 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1529,7 +1585,9 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1549,7 +1607,9 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1569,7 +1629,9 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -1589,7 +1651,9 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -1609,7 +1673,9 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1629,7 +1695,9 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -1649,7 +1717,9 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -1669,7 +1739,9 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -1689,7 +1761,9 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -1707,7 +1781,9 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -1725,7 +1801,9 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -1743,7 +1821,9 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -1761,7 +1841,9 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -1779,7 +1861,9 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -1797,7 +1881,9 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2545,6 +2631,7 @@
       <c r="P95" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
